--- a/xlsx/Amazon.com_intext.xlsx
+++ b/xlsx/Amazon.com_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1226">
   <si>
     <t>Amazon.com</t>
   </si>
@@ -29,7 +29,7 @@
     <t>上市公司</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Amazon.com</t>
+    <t>政策_政策_维基百科_Amazon.com</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%95%86%E5%8A%A1</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%96%AF%E8%BE%BE%E5%85%8B</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%A4%AB%C2%B7%E8%B4%9D%E4%BD%90%E6%96%AF</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E5%BA%97</t>
   </si>
   <si>
-    <t>書店</t>
+    <t>书店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E9%9B%B6%E5%94%AE</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%AF%E4%B8%96%E9%81%94</t>
   </si>
   <si>
-    <t>侯世達</t>
+    <t>侯世达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>時代 (雜誌)</t>
+    <t>时代 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E4%BB%A3%E5%B9%B4%E5%BA%A6%E9%A3%8E%E4%BA%91%E4%BA%BA%E7%89%A9</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E7%91%9F%E5%B3%B6_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默瑟島 (華盛頓州)</t>
+    <t>默瑟岛 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%85%8B%E5%85%B0_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E5%A2%A8%E6%B0%B4</t>
   </si>
   <si>
-    <t>電子墨水</t>
+    <t>电子墨水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%9D%BF%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>平板電腦</t>
+    <t>平板电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Android</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%A3%9D%E6%9B%B8</t>
   </si>
   <si>
-    <t>精裝書</t>
+    <t>精装书</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Amazon_MP3</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F%E5%94%B1%E7%89%87</t>
   </si>
   <si>
-    <t>華納兄弟唱片</t>
+    <t>华纳兄弟唱片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E9%9F%B3%E4%B9%90%E5%A8%B1%E4%B9%90</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E7%B6%B2%E8%B7%AF%E6%9C%8D%E5%8B%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>亞馬遜網路服務系統</t>
+    <t>亚马逊网路服务系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%91%E8%AE%A1%E7%AE%97</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E7%B0%A1%E6%98%93%E5%84%B2%E5%AD%98%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>亞馬遜簡易儲存服務</t>
+    <t>亚马逊简易储存服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/HTTP</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
@@ -617,9 +617,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/.fr</t>
   </si>
   <si>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.it</t>
@@ -647,9 +644,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/.nl</t>
   </si>
   <si>
@@ -689,9 +683,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/.com</t>
   </si>
   <si>
@@ -707,9 +698,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/.au</t>
   </si>
   <si>
@@ -743,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BE%B7%E6%96%AF%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>博德斯集團</t>
+    <t>博德斯集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E7%89%B9%E7%99%BE%E8%B4%A7%E5%85%AC%E5%8F%B8</t>
@@ -797,19 +785,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E7%87%88%E4%BF%A0</t>
   </si>
   <si>
-    <t>綠燈俠</t>
+    <t>绿灯侠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%88%E8%AD%B7%E8%80%85_(%E6%BC%AB%E7%95%AB)</t>
   </si>
   <si>
-    <t>守護者 (漫畫)</t>
+    <t>守护者 (漫画)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%AB%BE%E6%9B%B8%E5%BA%97</t>
   </si>
   <si>
-    <t>巴諾書店</t>
+    <t>巴诺书店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
@@ -833,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%89%E5%84%B2</t>
   </si>
   <si>
-    <t>倉儲</t>
+    <t>仓储</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -869,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -887,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E4%BD%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>坦佩 (亞利桑那州)</t>
+    <t>坦佩 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%93%A5%E5%8D%8E</t>
@@ -983,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%A6%8F%E5%85%8B%E6%96%AF_(%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E)</t>
   </si>
   <si>
-    <t>大福克斯 (北達科他州)</t>
+    <t>大福克斯 (北达科他州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%BD%BB%E6%96%AF%E7%89%B9</t>
@@ -995,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%9B%B7%E8%BF%AA%E4%BA%9E</t>
   </si>
   <si>
-    <t>埃雷迪亞</t>
+    <t>埃雷迪亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%BE%97%E7%BB%B4%E7%9A%84%E4%BA%9A</t>
@@ -1091,13 +1079,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E7%B6%AD%E7%88%BE_(%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E)</t>
   </si>
   <si>
-    <t>路易維爾 (肯塔基州)</t>
+    <t>路易维尔 (肯塔基州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
   </si>
   <si>
-    <t>北拉斯維加斯</t>
+    <t>北拉斯维加斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E8%88%92%E5%8E%84_(%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E)</t>
@@ -1127,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (德克薩斯州)</t>
+    <t>欧文 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%A7%86%E7%BA%B3_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
@@ -1139,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E6%B4%B2_(%E5%8D%91%E8%A9%A9%E7%9C%81)</t>
   </si>
   <si>
-    <t>三角洲 (卑詩省)</t>
+    <t>三角洲 (卑诗省)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%E4%BC%AF%E5%8B%92</t>
@@ -1157,13 +1145,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E9%BB%98%E7%88%BE%E4%BA%A8%E6%99%AE%E6%96%AF%E7%89%B9%E5%BE%B7</t>
   </si>
   <si>
-    <t>赫默爾亨普斯特德</t>
+    <t>赫默尔亨普斯特德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%A7%E5%BC%97%E5%A7%86%E6%9E%97</t>
   </si>
   <si>
-    <t>鄧弗姆林</t>
+    <t>邓弗姆林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%97%BA%E8%A5%BF</t>
@@ -1187,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E9%A6%AC%E7%88%BE</t>
   </si>
   <si>
-    <t>蒙特利馬爾</t>
+    <t>蒙特利马尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%A4%AB%E9%9B%B7</t>
@@ -1283,13 +1271,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E5%B8%82</t>
   </si>
   <si>
-    <t>大東市</t>
+    <t>大东市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%98%AA%E5%BA%9C</t>
   </si>
   <si>
-    <t>大阪府</t>
+    <t>大坂府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9D%E8%B6%8A%E5%B8%82</t>
@@ -1397,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E5%AE%B6%E8%8F%AF</t>
   </si>
   <si>
-    <t>謝家華</t>
+    <t>谢家华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Lab126</t>
@@ -1469,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E5%BD%B1%E7%89%87</t>
   </si>
   <si>
-    <t>亞馬遜影片</t>
+    <t>亚马逊影片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mobipocket</t>
@@ -1781,7 +1769,7 @@
     <t>https://zh.wikipedia.org/wiki/Google%E5%9C%96%E6%9B%B8</t>
   </si>
   <si>
-    <t>Google圖書</t>
+    <t>Google图书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%85%BE%E5%A0%A1%E8%AE%A1%E5%88%92</t>
@@ -1799,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E7%A9%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>青空文庫</t>
+    <t>青空文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B9%E7%95%8C</t>
@@ -1823,7 +1811,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%85%A8%E7%90%83%E4%B8%BB%E8%A6%81%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>Template talk-全球主要資訊科技公司</t>
+    <t>Template talk-全球主要资讯科技公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%8A%80%E6%9C%AF</t>
@@ -1853,25 +1841,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%BA%8C%E5%8D%81%E5%A4%A7%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%BB%A0%E5%95%86</t>
   </si>
   <si>
-    <t>全球二十大半導體廠商</t>
+    <t>全球二十大半导体厂商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E9%9B%BB%E5%AD%90%E7%94%A2%E5%93%81</t>
   </si>
   <si>
-    <t>消費電子產品</t>
+    <t>消费电子产品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>行動裝置</t>
+    <t>行动装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘋果公司</t>
+    <t>苹果公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E7%94%B5%E5%AD%90</t>
@@ -1883,13 +1871,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%82%BA</t>
   </si>
   <si>
-    <t>華為</t>
+    <t>华为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E7%A7%BB%E5%8B%95%E9%80%9A%E4%BF%A1</t>
   </si>
   <si>
-    <t>索尼移動通信</t>
+    <t>索尼移动通信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%BE%BE%E7%94%B5</t>
@@ -1901,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%A2%A9</t>
   </si>
   <si>
-    <t>華碩</t>
+    <t>华硕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E7%BD%97%E6%8B%89%E7%A7%BB%E5%8A%A8</t>
@@ -1919,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/LG%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>LG電子</t>
+    <t>LG电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TCL</t>
@@ -1973,7 +1961,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%8F%AF%E8%A6%96</t>
   </si>
   <si>
-    <t>富可視</t>
+    <t>富可视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E7%94%B5%E8%84%91</t>
@@ -2039,25 +2027,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%BB%E6%B5%B7%E7%A7%91%E6%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>鴻海科技集團</t>
+    <t>鸿海科技集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E6%99%BA%E5%BA%B7%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>富智康集團</t>
+    <t>富智康集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E9%81%94%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>廣達電腦</t>
+    <t>广达电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%AF%B6%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>仁寶電腦</t>
+    <t>仁宝电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%AC%E5%88%9B%E8%B5%84%E9%80%9A</t>
@@ -2069,19 +2057,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A5%AD%E9%81%94%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>英業達集團</t>
+    <t>英业达集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%A2%A9%E8%81%AF%E5%90%88%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>和碩聯合科技</t>
+    <t>和硕联合科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%89%E5%89%B5%E5%8A%9B</t>
   </si>
   <si>
-    <t>偉創力</t>
+    <t>伟创力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Celestica</t>
@@ -2123,7 +2111,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>日本電氣</t>
+    <t>日本电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%83%8F</t>
@@ -2141,9 +2129,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>三星電子</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%BA%B7</t>
   </si>
   <si>
@@ -2165,7 +2150,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%B7%B4%E6%96%AF</t>
   </si>
   <si>
-    <t>奧林巴斯</t>
+    <t>奥林巴斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%B0%BC%E5%8D%A1%E7%BE%8E%E8%83%BD%E8%BE%BE</t>
@@ -2201,7 +2186,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E5%B7%A5%E6%84%9B%E6%99%AE%E7%94%9F</t>
   </si>
   <si>
-    <t>精工愛普生</t>
+    <t>精工爱普生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E4%B9%90</t>
@@ -2213,7 +2198,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%AB%8B%E5%85%89%E9%9B%BB</t>
   </si>
   <si>
-    <t>大立光電</t>
+    <t>大立光电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%82%A8%E8%AE%BE%E5%A4%87</t>
@@ -2237,13 +2222,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E9%A8%B0%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>威騰電子</t>
+    <t>威腾电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%AB%8B%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>日立製作所</t>
+    <t>日立制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E5%AE%89%E4%BF%A1</t>
@@ -2261,7 +2246,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%99%A8%E6%A2%B0%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>網絡器械公司</t>
+    <t>网络器械公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%AA%A8%E6%96%87%E5%85%AC%E5%8F%B8</t>
@@ -2273,7 +2258,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E8%A9%A2</t>
   </si>
   <si>
-    <t>諮詢</t>
+    <t>谘询</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%88%A4</t>
@@ -2291,7 +2276,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%90%E8%A8%8A</t>
   </si>
   <si>
-    <t>源訊</t>
+    <t>源讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%80%9D%E8%89%BE%E4%BC%A6%E6%B1%89%E5%AF%86%E5%B0%94%E9%A1%BF%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
@@ -2303,7 +2288,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%8D%B7</t>
   </si>
   <si>
-    <t>凱捷</t>
+    <t>凯捷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CGI_Group</t>
@@ -2339,7 +2324,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%BE%B7%E6%8B%89%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>英德拉系統</t>
+    <t>英德拉系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%AD%9A%E7%91%9F%E6%96%AF</t>
@@ -2351,7 +2336,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E4%BF%A1%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>日本電信電話</t>
+    <t>日本电信电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wipro</t>
@@ -2381,13 +2366,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>思科系統</t>
+    <t>思科系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%B7%E5%94%AE%E6%99%82%E9%BB%9E%E6%83%85%E5%A0%B1%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>銷售時點情報系統</t>
+    <t>销售时点情报系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCR%E5%85%AC%E5%8F%B8</t>
@@ -2399,9 +2384,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%8A%9D</t>
   </si>
   <si>
-    <t>東芝</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Network_equipment_provider</t>
   </si>
   <si>
@@ -2411,7 +2393,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8D%A1%E7%89%B9-%E6%9C%97%E8%A8%8A</t>
   </si>
   <si>
-    <t>阿爾卡特-朗訊</t>
+    <t>阿尔卡特-朗讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E4%BA%9A</t>
@@ -2423,19 +2405,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%AB%8B%E4%BF%A1</t>
   </si>
   <si>
-    <t>愛立信</t>
+    <t>爱立信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%BA</t>
   </si>
   <si>
-    <t>华为</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9E%BB%E5%8D%9A%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>瞻博網路</t>
+    <t>瞻博网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E7%BD%97%E6%8B%89%E8%A7%A3%E5%86%B3%E6%96%B9%E6%A1%88</t>
@@ -2489,7 +2468,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E5%84%80%E5%99%A8</t>
   </si>
   <si>
-    <t>德州儀器</t>
+    <t>德州仪器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E9%80%9A</t>
@@ -2501,55 +2480,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E6%B3%95%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>意法半導體</t>
+    <t>意法半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E8%96%A9%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>瑞薩電子</t>
+    <t>瑞萨电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%A8%81%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>超威半導體</t>
+    <t>超威半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%81%89%E9%81%94</t>
   </si>
   <si>
-    <t>英偉達</t>
+    <t>英伟达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%80%9D%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>海思半導體</t>
+    <t>海思半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%99%BC%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>聯發科技</t>
+    <t>联发科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%80%9D%E5%8D%A1%E7%88%BE</t>
   </si>
   <si>
-    <t>飛思卡爾</t>
+    <t>飞思卡尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LG%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>LG集團</t>
+    <t>LG集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%A3%9B%E5%87%8C</t>
   </si>
   <si>
-    <t>英飛凌</t>
+    <t>英飞凌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%BB%A1%E7%94%B5%E5%AD%90%E7%A7%91%E6%8A%80%E5%85%AC%E5%8F%B8</t>
@@ -2567,7 +2546,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%B8%8B%E9%9B%BB%E5%99%A8</t>
   </si>
   <si>
-    <t>松下電器</t>
+    <t>松下电器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A3%AE%E7%BE%8E%E5%8D%8A%E5%AF%BC%E4%BD%93</t>
@@ -2579,7 +2558,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%8D%B7%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>快捷半導體公司</t>
+    <t>快捷半导体公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LSI%E5%85%AC%E5%8F%B8</t>
@@ -2591,43 +2570,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AB%E5%85%89%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>紫光集團</t>
+    <t>紫光集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%AC%80%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>安謀控股</t>
+    <t>安谋控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%B6%E5%9C%93%E4%BB%A3%E5%B7%A5</t>
   </si>
   <si>
-    <t>晶圓代工</t>
+    <t>晶圆代工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%A9%8D%E9%9B%BB</t>
   </si>
   <si>
-    <t>台積電</t>
+    <t>台积电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E8%8F%AF%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>聯華電子</t>
+    <t>联华电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BE%85%E6%96%B9%E5%BE%B7</t>
   </si>
   <si>
-    <t>格羅方德</t>
+    <t>格罗方德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8A%AF%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>中芯國際</t>
+    <t>中芯国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E6%99%B6%E7%A7%91%E6%8A%80</t>
@@ -2645,13 +2624,13 @@
     <t>https://zh.wikipedia.org/wiki/Priceline%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>Priceline集團</t>
+    <t>Priceline集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%9D%B1%E5%95%86%E5%9F%8E</t>
   </si>
   <si>
-    <t>京東商城</t>
+    <t>京东商城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Groupon</t>
@@ -2669,13 +2648,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E5%A4%A9_(Rakuten)</t>
   </si>
   <si>
-    <t>樂天 (Rakuten)</t>
+    <t>乐天 (Rakuten)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%93%E9%80%94%E9%B7%B9</t>
   </si>
   <si>
-    <t>貓途鷹</t>
+    <t>猫途鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Expedia%E5%85%AC%E5%8F%B8</t>
@@ -2753,7 +2732,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>社群網路</t>
+    <t>社群网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Facebook</t>
@@ -2765,7 +2744,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%B0%E8%A8%8A</t>
   </si>
   <si>
-    <t>騰訊</t>
+    <t>腾讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Twitter</t>
@@ -2777,7 +2756,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%8B%B1</t>
   </si>
   <si>
-    <t>領英</t>
+    <t>领英</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B5%AA%E5%BE%AE%E5%8D%9A</t>
@@ -2795,7 +2774,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E5%8F%A3%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>入口網站</t>
+    <t>入口网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E6%98%93</t>
@@ -2825,7 +2804,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>軟體</t>
+    <t>软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SAP%E5%85%AC%E5%8F%B8</t>
@@ -2837,7 +2816,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E9%96%80%E9%90%B5%E5%85%8B</t>
   </si>
   <si>
-    <t>賽門鐵克</t>
+    <t>赛门铁克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VMware</t>
@@ -2867,13 +2846,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%A8%E5%8B%A2%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>趨勢科技</t>
+    <t>趋势科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%8A%E9%80%A3%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>訊連科技</t>
+    <t>讯连科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B0%94</t>
@@ -2891,13 +2870,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>電信</t>
+    <t>电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A8%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>電訊公司</t>
+    <t>电讯公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AT%26T</t>
@@ -2909,7 +2888,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%A8%8A</t>
   </si>
   <si>
-    <t>威訊</t>
+    <t>威讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A7%BB%E5%8A%A8</t>
@@ -2927,7 +2906,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%8A%80</t>
   </si>
   <si>
-    <t>軟銀</t>
+    <t>软银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E8%BE%BE%E4%B8%B0</t>
@@ -2945,13 +2924,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>中國電信</t>
+    <t>中国电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>西班牙電信</t>
+    <t>西班牙电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Orange_(%E5%85%AC%E5%8F%B8)</t>
@@ -2975,19 +2954,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>英國電信</t>
+    <t>英国电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>義大利電信</t>
+    <t>义大利电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>澳大利亞電信</t>
+    <t>澳大利亚电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E7%94%B5%E4%BF%A1</t>
@@ -3023,19 +3002,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%97%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>維旺迪</t>
+    <t>维旺迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>中華電信</t>
+    <t>中华电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%9A%87%E5%AE%B6%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>荷蘭皇家電信</t>
+    <t>荷兰皇家电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NTT_DOCOMO</t>
@@ -3065,13 +3044,13 @@
     <t>https://zh.wikipedia.org/wiki/3_(%E9%9B%BB%E8%A8%8A)</t>
   </si>
   <si>
-    <t>3 (電訊)</t>
+    <t>3 (电讯)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>新加坡電信</t>
+    <t>新加坡电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Etisalat</t>
@@ -3095,7 +3074,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A8%8A%E7%9B%88%E7%A7%91</t>
   </si>
   <si>
-    <t>電訊盈科</t>
+    <t>电讯盈科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E8%A7%86%E6%9A%B4%E9%9B%AA</t>
@@ -3107,7 +3086,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E9%81%94%E5%88%A9</t>
   </si>
   <si>
-    <t>雅達利</t>
+    <t>雅达利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E4%BB%A3%E5%8D%97%E6%A2%A6%E5%AE%AB%E5%A8%B1%E4%B9%90</t>
@@ -3149,7 +3128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%A8%82%E7%BE%8E</t>
   </si>
   <si>
-    <t>科樂美</t>
+    <t>科乐美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCsoft</t>
@@ -3191,9 +3170,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%BE%E8%AE%AF</t>
   </si>
   <si>
-    <t>腾讯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%B2%E7%A2%A7</t>
   </si>
   <si>
@@ -3203,19 +3179,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F%E4%BA%92%E5%8B%95%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>華納兄弟互動娛樂</t>
+    <t>华纳兄弟互动娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%96%AF%E9%81%94%E5%85%8B100%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>納斯達克100指數</t>
+    <t>纳斯达克100指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%80%E4%B8%96%E7%B4%80%E7%A6%8F%E6%96%AF</t>
   </si>
   <si>
-    <t>二十一世紀福斯</t>
+    <t>二十一世纪福斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Akamai</t>
@@ -3227,7 +3203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%8A%9B%E5%85%84%E5%88%B6%E8%97%A5</t>
   </si>
   <si>
-    <t>亞力兄制藥</t>
+    <t>亚力兄制药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alphabet</t>
@@ -3299,7 +3275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E7%88%BE%E5%9F%BA%E5%9B%A0</t>
   </si>
   <si>
-    <t>賽爾基因</t>
+    <t>赛尔基因</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cerner</t>
@@ -3329,9 +3305,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E7%B3%BB%E7%BB%9F</t>
   </si>
   <si>
-    <t>思科系统</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E6%9D%B0%E7%B3%BB%E7%BB%9F</t>
   </si>
   <si>
@@ -3365,7 +3338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E7%B4%A2%E5%82%B3%E6%92%AD</t>
   </si>
   <si>
-    <t>探索傳播</t>
+    <t>探索传播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Dish_Network</t>
@@ -3407,7 +3380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A9%E4%B9%8B%E5%AF%B6</t>
   </si>
   <si>
-    <t>孩之寶</t>
+    <t>孩之宝</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Henry_Schein</t>
@@ -3485,13 +3458,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E8%B1%AA%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>萬豪國際</t>
+    <t>万豪国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B3%B0%E5%85%92</t>
   </si>
   <si>
-    <t>美泰兒</t>
+    <t>美泰儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%BF%A1%E9%9B%86%E6%88%90%E4%BA%A7%E5%93%81</t>
@@ -3527,7 +3500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E8%98%AD</t>
   </si>
   <si>
-    <t>邁蘭</t>
+    <t>迈兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Netflix</t>
@@ -3539,15 +3512,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E9%83%B5%E8%BC%AA</t>
   </si>
   <si>
-    <t>挪威郵輪</t>
+    <t>挪威邮轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E4%BC%9F%E8%BE%BE</t>
   </si>
   <si>
-    <t>英伟达</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/O%27Reilly_Auto_Parts</t>
   </si>
   <si>
@@ -3611,9 +3581,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9B%E9%97%A8%E9%93%81%E5%85%8B</t>
   </si>
   <si>
-    <t>赛门铁克</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/T-Mobile_US</t>
   </si>
   <si>
@@ -3623,15 +3590,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%96%AF%E6%8B%89%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>特斯拉汽車</t>
+    <t>特斯拉汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E4%BB%AA%E5%99%A8</t>
   </si>
   <si>
-    <t>德州仪器</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Tractor_Supply_Company</t>
   </si>
   <si>
@@ -3659,7 +3623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%9E%E5%BA%B7%E5%A7%86</t>
   </si>
   <si>
-    <t>維亞康姆</t>
+    <t>维亚康姆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Walgreens_Boots_Alliance</t>
@@ -3683,7 +3647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3701,7 +3665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3713,7 +3677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -4624,7 +4588,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -6999,7 +6963,7 @@
         <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -7025,10 +6989,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -7054,10 +7018,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -7083,10 +7047,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -7112,10 +7076,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -7141,10 +7105,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>88</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -7170,10 +7134,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -7199,10 +7163,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -7228,10 +7192,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -7257,10 +7221,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>5</v>
@@ -7286,10 +7250,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7315,10 +7279,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7344,10 +7308,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>48</v>
       </c>
       <c r="G113" t="n">
         <v>5</v>
@@ -7373,10 +7337,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>55</v>
@@ -7402,10 +7366,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7431,10 +7395,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7460,10 +7424,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -7489,10 +7453,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7518,10 +7482,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7547,10 +7511,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7576,10 +7540,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7605,10 +7569,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7634,10 +7598,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7663,10 +7627,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7692,10 +7656,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7721,10 +7685,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7750,10 +7714,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7779,10 +7743,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7808,10 +7772,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7837,10 +7801,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7866,10 +7830,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7895,10 +7859,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7924,10 +7888,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -7953,10 +7917,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -7982,10 +7946,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -8011,10 +7975,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8040,10 +8004,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -8069,10 +8033,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -8098,10 +8062,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8127,10 +8091,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -8156,10 +8120,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8185,10 +8149,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8214,10 +8178,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -8243,10 +8207,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8272,10 +8236,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -8301,10 +8265,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -8330,10 +8294,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -8359,10 +8323,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -8388,10 +8352,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8417,10 +8381,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8446,10 +8410,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -8475,10 +8439,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -8504,10 +8468,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8533,10 +8497,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -8562,10 +8526,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8591,10 +8555,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -8620,10 +8584,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8649,10 +8613,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8678,10 +8642,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -8707,10 +8671,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8736,10 +8700,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8765,10 +8729,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8794,10 +8758,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8823,10 +8787,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8852,10 +8816,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8881,10 +8845,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -8910,10 +8874,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8939,10 +8903,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -8968,10 +8932,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8997,10 +8961,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -9026,10 +8990,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -9055,10 +9019,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -9084,10 +9048,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -9113,10 +9077,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -9142,10 +9106,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -9171,10 +9135,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9200,10 +9164,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9229,10 +9193,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9258,10 +9222,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -9287,10 +9251,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -9316,10 +9280,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -9345,10 +9309,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9374,10 +9338,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9403,10 +9367,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9432,10 +9396,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9461,10 +9425,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9490,10 +9454,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9519,10 +9483,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9548,10 +9512,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9577,10 +9541,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9606,10 +9570,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9635,10 +9599,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9664,10 +9628,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9693,10 +9657,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9722,10 +9686,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9751,10 +9715,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9780,10 +9744,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9809,10 +9773,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9838,10 +9802,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9867,10 +9831,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9896,10 +9860,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9925,10 +9889,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9954,10 +9918,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9983,10 +9947,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -10012,10 +9976,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -10041,10 +10005,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -10070,10 +10034,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -10099,10 +10063,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -10128,10 +10092,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -10157,10 +10121,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -10186,10 +10150,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -10215,10 +10179,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -10244,10 +10208,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10273,10 +10237,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10302,10 +10266,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -10331,10 +10295,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F216" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10360,10 +10324,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F217" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -10389,10 +10353,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -10418,10 +10382,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F219" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10447,10 +10411,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10476,10 +10440,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F221" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10505,10 +10469,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F222" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10534,10 +10498,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F223" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10563,10 +10527,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F224" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10592,10 +10556,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F225" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10621,10 +10585,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F226" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10650,10 +10614,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F227" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -10679,10 +10643,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F228" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -10737,10 +10701,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F230" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -10766,10 +10730,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F231" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10795,10 +10759,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F232" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10824,10 +10788,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F233" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10853,10 +10817,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F234" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10882,10 +10846,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10911,10 +10875,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10940,10 +10904,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10969,10 +10933,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -11085,10 +11049,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -11114,10 +11078,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -11143,10 +11107,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11172,10 +11136,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -11201,10 +11165,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11230,10 +11194,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11259,10 +11223,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11288,10 +11252,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -11317,10 +11281,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F250" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11346,10 +11310,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11375,10 +11339,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11404,10 +11368,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11433,10 +11397,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>3</v>
@@ -11462,10 +11426,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11491,10 +11455,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -11520,10 +11484,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11549,10 +11513,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11578,10 +11542,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11607,10 +11571,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F260" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11636,10 +11600,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F261" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11665,10 +11629,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11694,10 +11658,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11723,10 +11687,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11752,10 +11716,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -11781,10 +11745,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11810,10 +11774,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -11839,10 +11803,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11868,10 +11832,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -11897,10 +11861,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -11926,10 +11890,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -11955,10 +11919,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -11984,10 +11948,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -12013,10 +11977,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -12042,10 +12006,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -12071,10 +12035,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F276" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -12129,10 +12093,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12158,10 +12122,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12187,10 +12151,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -12216,10 +12180,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -12245,10 +12209,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12274,10 +12238,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -12303,10 +12267,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -12332,10 +12296,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12361,10 +12325,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12390,10 +12354,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -12419,10 +12383,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G288" t="n">
         <v>3</v>
@@ -12448,10 +12412,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12477,10 +12441,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -12506,10 +12470,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -12535,10 +12499,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -12564,10 +12528,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12593,10 +12557,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -12622,10 +12586,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12651,10 +12615,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -12680,10 +12644,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12709,10 +12673,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -12738,10 +12702,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G299" t="n">
         <v>6</v>
@@ -12767,10 +12731,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12796,10 +12760,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -12825,10 +12789,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12854,10 +12818,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -12883,10 +12847,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12912,10 +12876,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12941,10 +12905,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12970,10 +12934,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12999,10 +12963,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -13028,10 +12992,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G309" t="n">
         <v>4</v>
@@ -13057,10 +13021,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G310" t="n">
         <v>6</v>
@@ -13086,10 +13050,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -13115,10 +13079,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -13144,10 +13108,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -13173,10 +13137,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13202,10 +13166,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13231,10 +13195,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13260,10 +13224,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13289,10 +13253,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G318" t="n">
         <v>4</v>
@@ -13318,10 +13282,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -13347,10 +13311,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -13376,10 +13340,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13405,10 +13369,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13434,10 +13398,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -13463,10 +13427,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13492,10 +13456,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13521,10 +13485,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F326" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13550,10 +13514,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F327" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13579,10 +13543,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F328" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13608,10 +13572,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F329" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13637,10 +13601,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13666,10 +13630,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13695,10 +13659,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G332" t="n">
         <v>3</v>
@@ -13724,10 +13688,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13753,10 +13717,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -13782,10 +13746,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F335" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13811,10 +13775,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F336" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13840,10 +13804,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F337" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13869,10 +13833,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F338" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G338" t="n">
         <v>5</v>
@@ -13898,10 +13862,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F339" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G339" t="n">
         <v>3</v>
@@ -13927,10 +13891,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F340" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13956,10 +13920,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F341" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13985,10 +13949,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F342" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G342" t="n">
         <v>3</v>
@@ -14014,10 +13978,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F343" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -14043,10 +14007,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F344" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G344" t="n">
         <v>6</v>
@@ -14072,10 +14036,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F345" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14101,10 +14065,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F346" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -14130,10 +14094,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F347" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14159,10 +14123,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14188,10 +14152,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14217,10 +14181,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14246,10 +14210,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14275,10 +14239,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14304,10 +14268,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F353" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14333,10 +14297,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F354" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14362,10 +14326,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F355" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14391,10 +14355,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F356" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14420,10 +14384,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F357" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14449,10 +14413,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F358" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14478,10 +14442,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F359" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14507,10 +14471,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F360" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G360" t="n">
         <v>3</v>
@@ -14536,10 +14500,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F361" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14565,10 +14529,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F362" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14594,10 +14558,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F363" t="s">
-        <v>708</v>
+        <v>616</v>
       </c>
       <c r="G363" t="n">
         <v>6</v>
@@ -14623,10 +14587,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F364" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14652,10 +14616,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G365" t="n">
         <v>5</v>
@@ -14681,10 +14645,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F366" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14710,10 +14674,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F367" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14739,10 +14703,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F368" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14768,10 +14732,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F369" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14797,10 +14761,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F370" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14826,10 +14790,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F371" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14855,10 +14819,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F372" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14884,10 +14848,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F373" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14913,10 +14877,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F374" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14942,10 +14906,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F375" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14971,10 +14935,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F376" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -15000,10 +14964,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F377" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -15029,10 +14993,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F378" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -15058,10 +15022,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F379" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G379" t="n">
         <v>3</v>
@@ -15087,10 +15051,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F380" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15116,10 +15080,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F381" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -15145,10 +15109,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F382" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G382" t="n">
         <v>5</v>
@@ -15174,10 +15138,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F383" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15203,10 +15167,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F384" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G384" t="n">
         <v>3</v>
@@ -15232,10 +15196,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F385" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15261,10 +15225,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F386" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15290,10 +15254,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F387" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15319,10 +15283,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F388" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15348,10 +15312,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F389" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15377,10 +15341,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F390" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15406,10 +15370,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F391" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15435,10 +15399,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F392" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -15464,10 +15428,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F393" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15493,10 +15457,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F394" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15522,10 +15486,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F395" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -15551,10 +15515,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F396" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15580,10 +15544,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F397" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15609,10 +15573,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F398" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15638,10 +15602,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F399" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -15667,10 +15631,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F400" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15696,10 +15660,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F401" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15725,10 +15689,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F402" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15754,10 +15718,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F403" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15783,10 +15747,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F404" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G404" t="n">
         <v>3</v>
@@ -15812,10 +15776,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F405" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15841,10 +15805,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F406" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15870,10 +15834,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F407" t="s">
-        <v>794</v>
+        <v>662</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -15899,10 +15863,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F408" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15928,10 +15892,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F409" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15957,10 +15921,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F410" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15986,10 +15950,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F411" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16015,10 +15979,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F412" t="s">
-        <v>804</v>
+        <v>618</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16044,10 +16008,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F413" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16073,10 +16037,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="F414" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16102,10 +16066,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="F415" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16131,10 +16095,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F416" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -16160,10 +16124,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F417" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16189,10 +16153,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F418" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16218,10 +16182,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="F419" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="G419" t="n">
         <v>2</v>
@@ -16247,10 +16211,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F420" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -16276,10 +16240,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="F421" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16305,10 +16269,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F422" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16334,10 +16298,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F423" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="G423" t="n">
         <v>2</v>
@@ -16363,10 +16327,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="F424" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16392,10 +16356,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="F425" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16421,10 +16385,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F426" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16450,10 +16414,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="F427" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16479,10 +16443,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F428" t="s">
-        <v>804</v>
+        <v>618</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16508,10 +16472,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F429" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16537,10 +16501,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F430" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16566,10 +16530,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F431" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16595,10 +16559,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="F432" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="G432" t="n">
         <v>2</v>
@@ -16624,10 +16588,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F433" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16653,10 +16617,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="F434" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16682,10 +16646,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="F435" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16711,10 +16675,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="F436" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16740,10 +16704,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F437" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16769,10 +16733,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F438" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16798,10 +16762,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="F439" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16827,10 +16791,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="F440" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16856,10 +16820,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="F441" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16885,10 +16849,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="F442" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16914,10 +16878,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="F443" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16943,10 +16907,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="F444" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16972,10 +16936,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="F445" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -17001,10 +16965,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="F446" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17030,10 +16994,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="F447" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17059,10 +17023,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F448" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17088,10 +17052,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="F449" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -17117,10 +17081,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="F450" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -17146,10 +17110,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="F451" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17175,10 +17139,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="F452" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17204,10 +17168,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="F453" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17233,10 +17197,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="F454" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17262,10 +17226,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="F455" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="G455" t="n">
         <v>2</v>
@@ -17291,10 +17255,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="F456" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17320,10 +17284,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="F457" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17349,10 +17313,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="F458" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17378,10 +17342,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="F459" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="G459" t="n">
         <v>4</v>
@@ -17407,10 +17371,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="F460" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G460" t="n">
         <v>2</v>
@@ -17436,10 +17400,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="F461" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="G461" t="n">
         <v>3</v>
@@ -17465,10 +17429,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="F462" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17494,10 +17458,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="F463" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17523,10 +17487,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="F464" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17552,10 +17516,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="F465" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17581,10 +17545,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="F466" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17610,10 +17574,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="F467" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17639,10 +17603,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="F468" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -17668,10 +17632,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="F469" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17697,10 +17661,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="F470" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="G470" t="n">
         <v>2</v>
@@ -17726,10 +17690,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="F471" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17755,10 +17719,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F472" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17784,10 +17748,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F473" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17813,10 +17777,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="F474" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17842,10 +17806,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="F475" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="G475" t="n">
         <v>2</v>
@@ -17871,10 +17835,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="F476" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17900,10 +17864,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="F477" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17929,10 +17893,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="F478" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17958,10 +17922,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="F479" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -17987,10 +17951,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="F480" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18016,10 +17980,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="F481" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18045,10 +18009,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="F482" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18074,10 +18038,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="F483" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18103,10 +18067,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="F484" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="G484" t="n">
         <v>6</v>
@@ -18132,10 +18096,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="F485" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="G485" t="n">
         <v>4</v>
@@ -18161,10 +18125,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="F486" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18190,10 +18154,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="F487" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18219,10 +18183,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="F488" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18248,10 +18212,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="F489" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18277,10 +18241,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="F490" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="G490" t="n">
         <v>3</v>
@@ -18306,10 +18270,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="F491" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18335,10 +18299,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="F492" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18364,10 +18328,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="F493" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18393,10 +18357,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="F494" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18422,10 +18386,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F495" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18451,10 +18415,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="F496" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18480,10 +18444,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="F497" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18509,10 +18473,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="F498" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18538,10 +18502,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="F499" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18567,10 +18531,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="F500" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18596,10 +18560,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="F501" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18625,10 +18589,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="F502" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="G502" t="n">
         <v>2</v>
@@ -18654,10 +18618,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="F503" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18683,10 +18647,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="F504" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18712,10 +18676,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="F505" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18741,10 +18705,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="F506" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18770,10 +18734,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="F507" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18799,10 +18763,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="F508" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18828,10 +18792,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="F509" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18857,10 +18821,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="F510" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18886,10 +18850,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="F511" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18915,10 +18879,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="F512" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18944,10 +18908,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="F513" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18973,10 +18937,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="F514" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -19002,10 +18966,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="F515" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19031,10 +18995,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="F516" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19060,10 +19024,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="F517" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19089,10 +19053,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="F518" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19118,10 +19082,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="F519" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="G519" t="n">
         <v>2</v>
@@ -19147,10 +19111,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="F520" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19176,10 +19140,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="F521" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19205,10 +19169,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="F522" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19234,10 +19198,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="F523" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="G523" t="n">
         <v>3</v>
@@ -19263,10 +19227,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="F524" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19292,10 +19256,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="F525" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19321,10 +19285,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="F526" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="G526" t="n">
         <v>2</v>
@@ -19350,10 +19314,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="F527" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19379,10 +19343,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="F528" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19408,10 +19372,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="F529" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19437,10 +19401,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="F530" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="G530" t="n">
         <v>2</v>
@@ -19466,10 +19430,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="F531" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19495,10 +19459,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="F532" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19524,10 +19488,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="F533" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19553,10 +19517,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="F534" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19582,10 +19546,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="F535" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19611,10 +19575,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="F536" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19640,10 +19604,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="F537" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19669,10 +19633,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="F538" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19698,10 +19662,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="F539" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19727,10 +19691,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="F540" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19756,10 +19720,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="F541" t="s">
-        <v>1058</v>
+        <v>909</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19785,10 +19749,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="F542" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19814,10 +19778,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="F543" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19843,10 +19807,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="F544" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="G544" t="n">
         <v>3</v>
@@ -19872,10 +19836,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="F545" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19901,10 +19865,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="F546" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19930,10 +19894,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="F547" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19959,10 +19923,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="F548" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19988,10 +19952,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="F549" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20017,10 +19981,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="F550" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="G550" t="n">
         <v>2</v>
@@ -20046,10 +20010,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="F551" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20075,10 +20039,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="F552" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20104,10 +20068,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F553" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20133,10 +20097,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="F554" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20162,10 +20126,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="F555" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20191,10 +20155,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="F556" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="G556" t="n">
         <v>2</v>
@@ -20220,10 +20184,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="F557" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20249,10 +20213,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="F558" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="G558" t="n">
         <v>2</v>
@@ -20278,10 +20242,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="F559" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20307,10 +20271,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="F560" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20336,10 +20300,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="F561" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20365,10 +20329,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="F562" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="G562" t="n">
         <v>2</v>
@@ -20394,10 +20358,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="F563" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="G563" t="n">
         <v>2</v>
@@ -20423,10 +20387,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="F564" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="G564" t="n">
         <v>2</v>
@@ -20452,10 +20416,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="F565" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="G565" t="n">
         <v>2</v>
@@ -20481,10 +20445,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="F566" t="s">
-        <v>1104</v>
+        <v>783</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20510,10 +20474,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="F567" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20539,10 +20503,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="F568" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20568,10 +20532,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="F569" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20597,10 +20561,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="F570" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="G570" t="n">
         <v>2</v>
@@ -20626,10 +20590,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="F571" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20655,10 +20619,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="F572" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="G572" t="n">
         <v>2</v>
@@ -20684,10 +20648,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="F573" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20713,10 +20677,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="F574" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20742,10 +20706,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="F575" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="G575" t="n">
         <v>2</v>
@@ -20800,10 +20764,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="F577" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20829,10 +20793,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="F578" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="G578" t="n">
         <v>2</v>
@@ -20858,10 +20822,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="F579" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="G579" t="n">
         <v>2</v>
@@ -20887,10 +20851,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="F580" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="G580" t="n">
         <v>2</v>
@@ -20916,10 +20880,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="F581" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="G581" t="n">
         <v>2</v>
@@ -20945,10 +20909,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="F582" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20974,10 +20938,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="F583" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="G583" t="n">
         <v>2</v>
@@ -21003,10 +20967,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="F584" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="G584" t="n">
         <v>2</v>
@@ -21032,10 +20996,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="F585" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="G585" t="n">
         <v>2</v>
@@ -21061,10 +21025,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="F586" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21090,10 +21054,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="F587" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="G587" t="n">
         <v>2</v>
@@ -21119,10 +21083,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F588" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21148,10 +21112,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="F589" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="G589" t="n">
         <v>2</v>
@@ -21177,10 +21141,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="F590" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="G590" t="n">
         <v>2</v>
@@ -21206,10 +21170,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="F591" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="G591" t="n">
         <v>2</v>
@@ -21235,10 +21199,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="F592" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21264,10 +21228,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="F593" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="G593" t="n">
         <v>2</v>
@@ -21293,10 +21257,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="F594" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="G594" t="n">
         <v>2</v>
@@ -21322,10 +21286,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="F595" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="G595" t="n">
         <v>2</v>
@@ -21351,10 +21315,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="F596" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21380,10 +21344,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="F597" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21409,10 +21373,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="F598" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21438,10 +21402,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="F599" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="G599" t="n">
         <v>3</v>
@@ -21467,10 +21431,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="F600" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21496,10 +21460,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F601" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21525,10 +21489,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="F602" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21554,10 +21518,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="F603" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="G603" t="n">
         <v>2</v>
@@ -21583,10 +21547,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="F604" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21612,10 +21576,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="F605" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21641,10 +21605,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="F606" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21670,10 +21634,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="F607" t="s">
-        <v>1176</v>
+        <v>827</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21699,10 +21663,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="F608" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="G608" t="n">
         <v>2</v>
@@ -21728,10 +21692,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="F609" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21757,10 +21721,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="F610" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="G610" t="n">
         <v>2</v>
@@ -21786,10 +21750,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="F611" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21815,10 +21779,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="F612" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="G612" t="n">
         <v>2</v>
@@ -21844,10 +21808,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="F613" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="G613" t="n">
         <v>2</v>
@@ -21873,10 +21837,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="F614" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="G614" t="n">
         <v>2</v>
@@ -21902,10 +21866,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="F615" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -21931,10 +21895,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="F616" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="G616" t="n">
         <v>2</v>
@@ -21960,10 +21924,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="F617" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21989,10 +21953,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="F618" t="s">
-        <v>1198</v>
+        <v>933</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22018,10 +21982,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="F619" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="G619" t="n">
         <v>2</v>
@@ -22047,10 +22011,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="F620" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22076,10 +22040,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="F621" t="s">
-        <v>1204</v>
+        <v>817</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22105,10 +22069,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="F622" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="G622" t="n">
         <v>2</v>
@@ -22134,10 +22098,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="F623" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="G623" t="n">
         <v>2</v>
@@ -22163,10 +22127,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="F624" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="G624" t="n">
         <v>2</v>
@@ -22192,10 +22156,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="F625" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="G625" t="n">
         <v>2</v>
@@ -22221,10 +22185,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="F626" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22250,10 +22214,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="F627" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22279,10 +22243,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="F628" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="G628" t="n">
         <v>2</v>
@@ -22308,10 +22272,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="F629" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22337,10 +22301,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="F630" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22366,10 +22330,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="F631" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="G631" t="n">
         <v>3</v>
@@ -22395,10 +22359,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="F632" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22424,10 +22388,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="F633" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22453,10 +22417,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="F634" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22482,10 +22446,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="F635" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22511,10 +22475,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="F636" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22540,10 +22504,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="F637" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22569,10 +22533,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="F638" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="G638" t="n">
         <v>4</v>
@@ -22598,10 +22562,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="F639" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="G639" t="n">
         <v>6</v>
